--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="H2">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="I2">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="J2">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="N2">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="O2">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="P2">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="Q2">
-        <v>3347.353008304398</v>
+        <v>4469.852788442459</v>
       </c>
       <c r="R2">
-        <v>3347.353008304398</v>
+        <v>40228.67509598213</v>
       </c>
       <c r="S2">
-        <v>0.6582654874721156</v>
+        <v>0.686362819450847</v>
       </c>
       <c r="T2">
-        <v>0.6582654874721156</v>
+        <v>0.6863628194508468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="H3">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="I3">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="J3">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="N3">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="O3">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="P3">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="Q3">
-        <v>626.2306151933268</v>
+        <v>731.6828121318308</v>
       </c>
       <c r="R3">
-        <v>626.2306151933268</v>
+        <v>6585.145309186478</v>
       </c>
       <c r="S3">
-        <v>0.1231498441178784</v>
+        <v>0.1123526661050333</v>
       </c>
       <c r="T3">
-        <v>0.1231498441178784</v>
+        <v>0.1123526661050333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="H4">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="I4">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="J4">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="N4">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="O4">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="P4">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="Q4">
-        <v>2.051068104633277</v>
+        <v>3.276592638285667</v>
       </c>
       <c r="R4">
-        <v>2.051068104633277</v>
+        <v>29.489333744571</v>
       </c>
       <c r="S4">
-        <v>0.0004033477623618935</v>
+        <v>0.0005031332054649812</v>
       </c>
       <c r="T4">
-        <v>0.0004033477623618935</v>
+        <v>0.0005031332054649812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="H5">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="I5">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="J5">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="N5">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="O5">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="P5">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="Q5">
-        <v>16.9820319436187</v>
+        <v>20.49856607712556</v>
       </c>
       <c r="R5">
-        <v>16.9820319436187</v>
+        <v>184.48709469413</v>
       </c>
       <c r="S5">
-        <v>0.003339559797816413</v>
+        <v>0.003147632432945952</v>
       </c>
       <c r="T5">
-        <v>0.003339559797816413</v>
+        <v>0.003147632432945951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="H6">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="I6">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="J6">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="N6">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="O6">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="P6">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="Q6">
-        <v>5.85345954676133</v>
+        <v>7.974051626555891</v>
       </c>
       <c r="R6">
-        <v>5.85345954676133</v>
+        <v>71.766464639003</v>
       </c>
       <c r="S6">
-        <v>0.001151097715833371</v>
+        <v>0.001224445818663446</v>
       </c>
       <c r="T6">
-        <v>0.001151097715833371</v>
+        <v>0.001224445818663445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="H7">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="I7">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="J7">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="N7">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="O7">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="P7">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="Q7">
-        <v>127.2614227259279</v>
+        <v>162.0244717716308</v>
       </c>
       <c r="R7">
-        <v>127.2614227259279</v>
+        <v>1458.220245944677</v>
       </c>
       <c r="S7">
-        <v>0.02502628263563769</v>
+        <v>0.02487947109863577</v>
       </c>
       <c r="T7">
-        <v>0.02502628263563769</v>
+        <v>0.02487947109863576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="H8">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="I8">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="J8">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="N8">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="O8">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="P8">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="Q8">
-        <v>626.2306151933268</v>
+        <v>731.6828121318308</v>
       </c>
       <c r="R8">
-        <v>626.2306151933268</v>
+        <v>6585.145309186478</v>
       </c>
       <c r="S8">
-        <v>0.1231498441178784</v>
+        <v>0.1123526661050333</v>
       </c>
       <c r="T8">
-        <v>0.1231498441178784</v>
+        <v>0.1123526661050333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="H9">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="I9">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="J9">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="N9">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="O9">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="P9">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="Q9">
-        <v>117.1566854265136</v>
+        <v>119.771223552016</v>
       </c>
       <c r="R9">
-        <v>117.1566854265136</v>
+        <v>1077.941011968144</v>
       </c>
       <c r="S9">
-        <v>0.02303916033103618</v>
+        <v>0.01839132485499252</v>
       </c>
       <c r="T9">
-        <v>0.02303916033103618</v>
+        <v>0.01839132485499251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="H10">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="I10">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="J10">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="N10">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="O10">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="P10">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="Q10">
-        <v>0.3837186092358216</v>
+        <v>0.5363546920360001</v>
       </c>
       <c r="R10">
-        <v>0.3837186092358216</v>
+        <v>4.827192228324001</v>
       </c>
       <c r="S10">
-        <v>7.545924099851338E-05</v>
+        <v>8.235929371172819E-05</v>
       </c>
       <c r="T10">
-        <v>7.545924099851338E-05</v>
+        <v>8.235929371172816E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="H11">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="I11">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="J11">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="N11">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="O11">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="P11">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="Q11">
-        <v>3.177038180586772</v>
+        <v>3.355468106413334</v>
       </c>
       <c r="R11">
-        <v>3.177038180586772</v>
+        <v>30.19921295772001</v>
       </c>
       <c r="S11">
-        <v>0.0006247726431819749</v>
+        <v>0.0005152448322347917</v>
       </c>
       <c r="T11">
-        <v>0.0006247726431819749</v>
+        <v>0.0005152448322347915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="H12">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="I12">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="J12">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="N12">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="O12">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="P12">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="Q12">
-        <v>1.095078876916665</v>
+        <v>1.305295005081334</v>
       </c>
       <c r="R12">
-        <v>1.095078876916665</v>
+        <v>11.747655045732</v>
       </c>
       <c r="S12">
-        <v>0.000215350047917149</v>
+        <v>0.0002004329901466205</v>
       </c>
       <c r="T12">
-        <v>0.000215350047917149</v>
+        <v>0.0002004329901466205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="H13">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="I13">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="J13">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="N13">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="O13">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="P13">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="Q13">
-        <v>23.80836405551543</v>
+        <v>26.52224284579867</v>
       </c>
       <c r="R13">
-        <v>23.80836405551543</v>
+        <v>238.700185612188</v>
       </c>
       <c r="S13">
-        <v>0.004681975379362878</v>
+        <v>0.004072590807659609</v>
       </c>
       <c r="T13">
-        <v>0.004681975379362878</v>
+        <v>0.004072590807659608</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="H14">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="I14">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="J14">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="N14">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="O14">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="P14">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="Q14">
-        <v>2.051068104633277</v>
+        <v>3.276592638285667</v>
       </c>
       <c r="R14">
-        <v>2.051068104633277</v>
+        <v>29.489333744571</v>
       </c>
       <c r="S14">
-        <v>0.0004033477623618935</v>
+        <v>0.0005031332054649812</v>
       </c>
       <c r="T14">
-        <v>0.0004033477623618935</v>
+        <v>0.0005031332054649812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="H15">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="I15">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="J15">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="N15">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="O15">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="P15">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="Q15">
-        <v>0.3837186092358216</v>
+        <v>0.5363546920360001</v>
       </c>
       <c r="R15">
-        <v>0.3837186092358216</v>
+        <v>4.827192228324001</v>
       </c>
       <c r="S15">
-        <v>7.545924099851338E-05</v>
+        <v>8.235929371172819E-05</v>
       </c>
       <c r="T15">
-        <v>7.545924099851338E-05</v>
+        <v>8.235929371172816E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="H16">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="I16">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="J16">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="N16">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="O16">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="P16">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="Q16">
-        <v>0.001256778224288611</v>
+        <v>0.002401882081</v>
       </c>
       <c r="R16">
-        <v>0.001256778224288611</v>
+        <v>0.021616938729</v>
       </c>
       <c r="S16">
-        <v>2.47148636072521E-07</v>
+        <v>3.688180875590036E-07</v>
       </c>
       <c r="T16">
-        <v>2.47148636072521E-07</v>
+        <v>3.688180875590036E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="H17">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="I17">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="J17">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="N17">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="O17">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="P17">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="Q17">
-        <v>0.01040562617238376</v>
+        <v>0.01502632276333333</v>
       </c>
       <c r="R17">
-        <v>0.01040562617238376</v>
+        <v>0.13523690487</v>
       </c>
       <c r="S17">
-        <v>2.04629286717701E-06</v>
+        <v>2.307348753070165E-06</v>
       </c>
       <c r="T17">
-        <v>2.04629286717701E-06</v>
+        <v>2.307348753070164E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="H18">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="I18">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="J18">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="N18">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="O18">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="P18">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="Q18">
-        <v>0.003586668077235415</v>
+        <v>0.005845319766333334</v>
       </c>
       <c r="R18">
-        <v>0.003586668077235415</v>
+        <v>0.05260787789700001</v>
       </c>
       <c r="S18">
-        <v>7.053274047896134E-07</v>
+        <v>8.975709817079493E-07</v>
       </c>
       <c r="T18">
-        <v>7.053274047896134E-07</v>
+        <v>8.97570981707949E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="H19">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="I19">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="J19">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="N19">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="O19">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="P19">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="Q19">
-        <v>0.07797858321361326</v>
+        <v>0.1187708447136667</v>
       </c>
       <c r="R19">
-        <v>0.07797858321361326</v>
+        <v>1.068937602423</v>
       </c>
       <c r="S19">
-        <v>1.533468682990671E-05</v>
+        <v>1.823771289672315E-05</v>
       </c>
       <c r="T19">
-        <v>1.533468682990671E-05</v>
+        <v>1.823771289672315E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="H20">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="I20">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="J20">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="N20">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="O20">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="P20">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="Q20">
-        <v>16.9820319436187</v>
+        <v>20.49856607712556</v>
       </c>
       <c r="R20">
-        <v>16.9820319436187</v>
+        <v>184.48709469413</v>
       </c>
       <c r="S20">
-        <v>0.003339559797816413</v>
+        <v>0.003147632432945952</v>
       </c>
       <c r="T20">
-        <v>0.003339559797816413</v>
+        <v>0.003147632432945951</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="H21">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="I21">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="J21">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="N21">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="O21">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="P21">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="Q21">
-        <v>3.177038180586772</v>
+        <v>3.355468106413334</v>
       </c>
       <c r="R21">
-        <v>3.177038180586772</v>
+        <v>30.19921295772001</v>
       </c>
       <c r="S21">
-        <v>0.0006247726431819749</v>
+        <v>0.0005152448322347917</v>
       </c>
       <c r="T21">
-        <v>0.0006247726431819749</v>
+        <v>0.0005152448322347915</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="H22">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="I22">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="J22">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="N22">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="O22">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="P22">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="Q22">
-        <v>0.01040562617238376</v>
+        <v>0.01502632276333333</v>
       </c>
       <c r="R22">
-        <v>0.01040562617238376</v>
+        <v>0.13523690487</v>
       </c>
       <c r="S22">
-        <v>2.04629286717701E-06</v>
+        <v>2.307348753070165E-06</v>
       </c>
       <c r="T22">
-        <v>2.04629286717701E-06</v>
+        <v>2.307348753070164E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="H23">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="I23">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="J23">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="N23">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="O23">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="P23">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="Q23">
-        <v>0.08615446539956341</v>
+        <v>0.09400560401111112</v>
       </c>
       <c r="R23">
-        <v>0.08615446539956341</v>
+        <v>0.8460504361000001</v>
       </c>
       <c r="S23">
-        <v>1.694249486786899E-05</v>
+        <v>1.443491642053139E-05</v>
       </c>
       <c r="T23">
-        <v>1.694249486786899E-05</v>
+        <v>1.443491642053138E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="H24">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="I24">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="J24">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="N24">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="O24">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="P24">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="Q24">
-        <v>0.02969619181400101</v>
+        <v>0.03656868176777778</v>
       </c>
       <c r="R24">
-        <v>0.02969619181400101</v>
+        <v>0.3291181359100001</v>
       </c>
       <c r="S24">
-        <v>5.839831691492512E-06</v>
+        <v>5.615259542021458E-06</v>
       </c>
       <c r="T24">
-        <v>5.839831691492512E-06</v>
+        <v>5.615259542021456E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="H25">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="I25">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="J25">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="N25">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="O25">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="P25">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="Q25">
-        <v>0.6456317993831207</v>
+        <v>0.7430377459655555</v>
       </c>
       <c r="R25">
-        <v>0.6456317993831207</v>
+        <v>6.687339713689999</v>
       </c>
       <c r="S25">
-        <v>0.0001269651363611964</v>
+        <v>0.0001140962591873256</v>
       </c>
       <c r="T25">
-        <v>0.0001269651363611964</v>
+        <v>0.0001140962591873256</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="H26">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="I26">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="J26">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="N26">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="O26">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="P26">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="Q26">
-        <v>5.85345954676133</v>
+        <v>7.974051626555891</v>
       </c>
       <c r="R26">
-        <v>5.85345954676133</v>
+        <v>71.766464639003</v>
       </c>
       <c r="S26">
-        <v>0.001151097715833371</v>
+        <v>0.001224445818663446</v>
       </c>
       <c r="T26">
-        <v>0.001151097715833371</v>
+        <v>0.001224445818663445</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,52 +2084,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="H27">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="I27">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="J27">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="N27">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="O27">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="P27">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="Q27">
-        <v>1.095078876916665</v>
+        <v>1.305295005081334</v>
       </c>
       <c r="R27">
-        <v>1.095078876916665</v>
+        <v>11.747655045732</v>
       </c>
       <c r="S27">
-        <v>0.000215350047917149</v>
+        <v>0.0002004329901466205</v>
       </c>
       <c r="T27">
-        <v>0.000215350047917149</v>
+        <v>0.0002004329901466205</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,52 +2146,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="H28">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="I28">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="J28">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="N28">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="O28">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="P28">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="Q28">
-        <v>0.003586668077235415</v>
+        <v>0.005845319766333334</v>
       </c>
       <c r="R28">
-        <v>0.003586668077235415</v>
+        <v>0.05260787789700001</v>
       </c>
       <c r="S28">
-        <v>7.053274047896134E-07</v>
+        <v>8.975709817079493E-07</v>
       </c>
       <c r="T28">
-        <v>7.053274047896134E-07</v>
+        <v>8.97570981707949E-07</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,52 +2208,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="H29">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="I29">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="J29">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="N29">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="O29">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="P29">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="Q29">
-        <v>0.02969619181400101</v>
+        <v>0.03656868176777778</v>
       </c>
       <c r="R29">
-        <v>0.02969619181400101</v>
+        <v>0.3291181359100001</v>
       </c>
       <c r="S29">
-        <v>5.839831691492512E-06</v>
+        <v>5.615259542021458E-06</v>
       </c>
       <c r="T29">
-        <v>5.839831691492512E-06</v>
+        <v>5.615259542021456E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,52 +2270,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="H30">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="I30">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="J30">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="N30">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="O30">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="P30">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="Q30">
-        <v>0.01023584563103109</v>
+        <v>0.01422541241344445</v>
       </c>
       <c r="R30">
-        <v>0.01023584563103109</v>
+        <v>0.128028711721</v>
       </c>
       <c r="S30">
-        <v>2.012905091660199E-06</v>
+        <v>2.184365936432785E-06</v>
       </c>
       <c r="T30">
-        <v>2.012905091660199E-06</v>
+        <v>2.184365936432785E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,52 +2332,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="H31">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="I31">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="J31">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="N31">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="O31">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="P31">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="Q31">
-        <v>0.2225398958345452</v>
+        <v>0.2890456495598889</v>
       </c>
       <c r="R31">
-        <v>0.2225398958345452</v>
+        <v>2.601410846039</v>
       </c>
       <c r="S31">
-        <v>4.376303683838992E-05</v>
+        <v>4.438405387642683E-05</v>
       </c>
       <c r="T31">
-        <v>4.376303683838992E-05</v>
+        <v>4.438405387642682E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2394,52 +2394,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="H32">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="I32">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="J32">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>57.8563134697018</v>
+        <v>66.85695766666667</v>
       </c>
       <c r="N32">
-        <v>57.8563134697018</v>
+        <v>200.570873</v>
       </c>
       <c r="O32">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115905</v>
       </c>
       <c r="P32">
-        <v>0.8113356195016435</v>
+        <v>0.8284701681115904</v>
       </c>
       <c r="Q32">
-        <v>127.2614227259279</v>
+        <v>162.0244717716308</v>
       </c>
       <c r="R32">
-        <v>127.2614227259279</v>
+        <v>1458.220245944677</v>
       </c>
       <c r="S32">
-        <v>0.02502628263563769</v>
+        <v>0.02487947109863577</v>
       </c>
       <c r="T32">
-        <v>0.02502628263563769</v>
+        <v>0.02487947109863576</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2456,52 +2456,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="H33">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="I33">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="J33">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>10.8238941895472</v>
+        <v>10.944004</v>
       </c>
       <c r="N33">
-        <v>10.8238941895472</v>
+        <v>32.83201200000001</v>
       </c>
       <c r="O33">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="P33">
-        <v>0.1517865617603751</v>
+        <v>0.1356146188837786</v>
       </c>
       <c r="Q33">
-        <v>23.80836405551543</v>
+        <v>26.52224284579867</v>
       </c>
       <c r="R33">
-        <v>23.80836405551543</v>
+        <v>238.700185612188</v>
       </c>
       <c r="S33">
-        <v>0.004681975379362878</v>
+        <v>0.004072590807659609</v>
       </c>
       <c r="T33">
-        <v>0.004681975379362878</v>
+        <v>0.004072590807659608</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2518,52 +2518,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="H34">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="I34">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="J34">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.0354510680274743</v>
+        <v>0.049009</v>
       </c>
       <c r="N34">
-        <v>0.0354510680274743</v>
+        <v>0.147027</v>
       </c>
       <c r="O34">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="P34">
-        <v>0.0004971404590983528</v>
+        <v>0.0006073039498957697</v>
       </c>
       <c r="Q34">
-        <v>0.07797858321361326</v>
+        <v>0.1187708447136667</v>
       </c>
       <c r="R34">
-        <v>0.07797858321361326</v>
+        <v>1.068937602423</v>
       </c>
       <c r="S34">
-        <v>1.533468682990671E-05</v>
+        <v>1.823771289672315E-05</v>
       </c>
       <c r="T34">
-        <v>1.533468682990671E-05</v>
+        <v>1.823771289672315E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2580,52 +2580,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="H35">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="I35">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="J35">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.293520809142322</v>
+        <v>0.3066033333333333</v>
       </c>
       <c r="N35">
-        <v>0.293520809142322</v>
+        <v>0.91981</v>
       </c>
       <c r="O35">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="P35">
-        <v>0.004116126196786123</v>
+        <v>0.003799331049083692</v>
       </c>
       <c r="Q35">
-        <v>0.6456317993831207</v>
+        <v>0.7430377459655555</v>
       </c>
       <c r="R35">
-        <v>0.6456317993831207</v>
+        <v>6.687339713689999</v>
       </c>
       <c r="S35">
-        <v>0.0001269651363611964</v>
+        <v>0.0001140962591873256</v>
       </c>
       <c r="T35">
-        <v>0.0001269651363611964</v>
+        <v>0.0001140962591873256</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2642,52 +2642,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="H36">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="I36">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="J36">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.101172356061481</v>
+        <v>0.1192703333333334</v>
       </c>
       <c r="N36">
-        <v>0.101172356061481</v>
+        <v>0.357811</v>
       </c>
       <c r="O36">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="P36">
-        <v>0.001418768864776852</v>
+        <v>0.001477960059146655</v>
       </c>
       <c r="Q36">
-        <v>0.2225398958345452</v>
+        <v>0.2890456495598889</v>
       </c>
       <c r="R36">
-        <v>0.2225398958345452</v>
+        <v>2.601410846039</v>
       </c>
       <c r="S36">
-        <v>4.376303683838992E-05</v>
+        <v>4.438405387642683E-05</v>
       </c>
       <c r="T36">
-        <v>4.376303683838992E-05</v>
+        <v>4.438405387642682E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2704,52 +2704,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="H37">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="I37">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="J37">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.19961167751506</v>
+        <v>2.423449666666667</v>
       </c>
       <c r="N37">
-        <v>2.19961167751506</v>
+        <v>7.270349</v>
       </c>
       <c r="O37">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="P37">
-        <v>0.03084578321731996</v>
+        <v>0.03003061794650479</v>
       </c>
       <c r="Q37">
-        <v>4.838291531860617</v>
+        <v>5.873108286866777</v>
       </c>
       <c r="R37">
-        <v>4.838291531860617</v>
+        <v>52.857974581801</v>
       </c>
       <c r="S37">
-        <v>0.0009514623422898976</v>
+        <v>0.0009018380142489355</v>
       </c>
       <c r="T37">
-        <v>0.0009514623422898976</v>
+        <v>0.0009018380142489353</v>
       </c>
     </row>
   </sheetData>
